--- a/Financial Services/S&P Global.xlsx
+++ b/Financial Services/S&P Global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5834F125-EBD6-2946-B43A-A40B117DFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7EA8E-411E-4E4F-B344-F274BDC70CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2522,39 +2522,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>416.36</v>
+    <v>395.79500000000002</v>
     <v>279.32</v>
-    <v>1.1156999999999999</v>
-    <v>-3.74</v>
-    <v>-1.0853E-2</v>
-    <v>2.34</v>
-    <v>6.8649999999999996E-3</v>
+    <v>1.1146</v>
+    <v>6.88</v>
+    <v>1.8828000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
-    <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. It comprises six operating divisions: S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility), S&amp;P Dow Jones Indices (Indices), and S&amp;P Global Engineering Solutions (Engineering Solutions). Its Market Intelligence business lines include desktop, data &amp; advisory solutions, enterprise solutions and credit risk solutions. Its Ratings provides credit ratings, research and analytics to investors and other market participants. Its Commodity Insights is an independent provider of information and benchmark prices for the commodity and energy markets. Its Mobility provides insights, forecasts and advisory services to automotive value chain. Its Indices is an index provider that maintains a range of indices to meet various investor needs.</v>
+    <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. The Company operates through five segments: S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility), and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment is a provider of credit ratings, research and analytics to investors and other market participants. Its Commodity Insights is a provider of information and benchmark prices for the commodity and energy markets. Its Mobility provides insights, forecasts and advisory services to the automotive value chain. Its Indices is an index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>39950</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water St, NEW YORK, NY, 10041-0004 US</v>
-    <v>343.4</v>
+    <v>374.06</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.982271712499</v>
+    <v>45068.903772164063</v>
     <v>0</v>
-    <v>334.5</v>
-    <v>111784200000</v>
+    <v>365.41</v>
+    <v>119433840000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>343.4</v>
-    <v>32.830100000000002</v>
-    <v>344.6</v>
-    <v>340.86</v>
-    <v>343.2</v>
-    <v>327947400</v>
+    <v>365.41</v>
+    <v>43.016500000000001</v>
+    <v>365.42</v>
+    <v>372.3</v>
+    <v>372.35</v>
+    <v>320800000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>1309958</v>
-    <v>1496609</v>
+    <v>1231426</v>
+    <v>1057919</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2719,9 +2719,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3142,10 +3142,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN89" sqref="AN89"/>
+      <selection pane="bottomRight" activeCell="AQ95" sqref="AQ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5364,15 +5364,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>9.9976925140863973</v>
+        <v>10.681856721223504</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>34.416317733990148</v>
+        <v>36.77150246305419</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>44.464677804295945</v>
+        <v>47.50749403341289</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="AU95" s="57" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1156999999999999</v>
+        <v>1.1146</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.898088500000001E-2</v>
+        <v>8.8933530000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>9.3523044636109151E-2</v>
+        <v>8.8060458662666055E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="AU101" s="48" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>111784200000</v>
+        <v>119433840000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.90647695536389084</v>
+        <v>0.9119395413373339</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="AU103" s="37">
         <f>AU99+AU101</f>
-        <v>123317200000</v>
+        <v>130966840000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.2505652942099564E-2</v>
+        <v>8.2840679767715864E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
       <c r="AQ107" s="38"/>
       <c r="AR107" s="41">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>64681730317.21492</v>
+        <v>64307078517.295357</v>
       </c>
       <c r="AS107" s="42" t="s">
         <v>147</v>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="AR108" s="41">
         <f>AR107+AR106</f>
-        <v>68310574351.669792</v>
+        <v>67935922551.750229</v>
       </c>
       <c r="AS108" s="42" t="s">
         <v>143</v>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="AU108" s="46">
         <f>AU105</f>
-        <v>8.2505652942099564E-2</v>
+        <v>8.2840679767715864E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="AO110" s="48">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>55865159622.37059</v>
+        <v>55534816491.304161</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="AO113" s="48">
         <f>AO110+AO111-AO112</f>
-        <v>45619159622.37059</v>
+        <v>45288816491.304161</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>114.61927965594801</v>
+        <v>113.78928427603407</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>340.86</v>
+        <v>372.3</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="AO117" s="52">
         <f>AO115/AO116-1</f>
-        <v>-0.66373502418603536</v>
+        <v>-0.69436131002945456</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/S&P Global.xlsx
+++ b/Financial Services/S&P Global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7EA8E-411E-4E4F-B344-F274BDC70CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F803F52-BEE1-BB43-8A7D-84B91CAFD9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="40960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2522,13 +2522,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>395.79500000000002</v>
+    <v>402.92</v>
     <v>279.32</v>
-    <v>1.1146</v>
-    <v>6.88</v>
-    <v>1.8828000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1167</v>
+    <v>0.51</v>
+    <v>1.3039999999999998E-3</v>
     <v>USD</v>
     <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. The Company operates through five segments: S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility), and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment is a provider of credit ratings, research and analytics to investors and other market participants. Its Commodity Insights is a provider of information and benchmark prices for the commodity and energy markets. Its Mobility provides insights, forecasts and advisory services to the automotive value chain. Its Indices is an index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>39950</v>
@@ -2536,25 +2534,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water St, NEW YORK, NY, 10041-0004 US</v>
-    <v>374.06</v>
+    <v>392.1</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45068.903772164063</v>
+    <v>45105.958333356248</v>
     <v>0</v>
-    <v>365.41</v>
-    <v>119433840000</v>
+    <v>389.19</v>
+    <v>125599616000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>365.41</v>
-    <v>43.016500000000001</v>
-    <v>365.42</v>
-    <v>372.3</v>
-    <v>372.35</v>
+    <v>390.24</v>
+    <v>46.088999999999999</v>
+    <v>391.01</v>
+    <v>391.52</v>
     <v>320800000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>1231426</v>
-    <v>1057919</v>
+    <v>17</v>
+    <v>1244083</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2586,8 +2583,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2608,7 +2603,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2625,7 +2619,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2636,16 +2630,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2711,19 +2702,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2768,9 +2753,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2778,9 +2760,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3142,10 +3121,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ95" sqref="AQ95"/>
+      <selection pane="bottomRight" activeCell="AR103" sqref="AR103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5364,15 +5343,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>10.681856721223504</v>
+        <v>11.233307933100797</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>36.77150246305419</v>
+        <v>38.669832512315274</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>47.50749403341289</v>
+        <v>49.960070007955451</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15045,7 +15024,7 @@
       </c>
       <c r="AU95" s="57" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1146</v>
+        <v>1.1167</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15296,7 +15275,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.8933530000000011E-2</v>
+        <v>8.9023934999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15671,7 +15650,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>8.8060458662666055E-2</v>
+        <v>8.4101071914211858E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15797,7 +15776,7 @@
       </c>
       <c r="AU101" s="48" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>119433840000</v>
+        <v>125599616000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15923,7 +15902,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.9119395413373339</v>
+        <v>0.9158989280857881</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16049,7 +16028,7 @@
       </c>
       <c r="AU103" s="37">
         <f>AU99+AU101</f>
-        <v>130966840000</v>
+        <v>137132616000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16339,7 +16318,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.2840679767715864E-2</v>
+        <v>8.3197429200821474E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16537,7 +16516,7 @@
       <c r="AQ107" s="38"/>
       <c r="AR107" s="41">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>64307078517.295357</v>
+        <v>63912877018.693779</v>
       </c>
       <c r="AS107" s="42" t="s">
         <v>147</v>
@@ -16568,7 +16547,7 @@
       </c>
       <c r="AR108" s="41">
         <f>AR107+AR106</f>
-        <v>67935922551.750229</v>
+        <v>67541721053.148651</v>
       </c>
       <c r="AS108" s="42" t="s">
         <v>143</v>
@@ -16578,7 +16557,7 @@
       </c>
       <c r="AU108" s="46">
         <f>AU105</f>
-        <v>8.2840679767715864E-2</v>
+        <v>8.3197429200821474E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16593,7 +16572,7 @@
       </c>
       <c r="AO110" s="48">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>55534816491.304161</v>
+        <v>55187244850.85807</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16620,7 +16599,7 @@
       </c>
       <c r="AO113" s="48">
         <f>AO110+AO111-AO112</f>
-        <v>45288816491.304161</v>
+        <v>44941244850.85807</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16638,7 +16617,7 @@
       </c>
       <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>113.78928427603407</v>
+        <v>112.91600183535466</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16647,7 +16626,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>372.3</v>
+        <v>391.52</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16656,7 +16635,7 @@
       </c>
       <c r="AO117" s="52">
         <f>AO115/AO116-1</f>
-        <v>-0.69436131002945456</v>
+        <v>-0.71159582694280066</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/S&P Global.xlsx
+++ b/Financial Services/S&P Global.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F803F52-BEE1-BB43-8A7D-84B91CAFD9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE97B45-10D0-C648-A260-17BBD8666936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="40960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,17 +545,49 @@
   <si>
     <t>Net Cash</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,97 +917,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,9 +1056,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SPGI</a:t>
+              <a:t>S&amp;P Global</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1117,10 +1094,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4903654485049829E-2"/>
-          <c:y val="0.11972079992733149"/>
-          <c:w val="0.86326910299003323"/>
-          <c:h val="0.71255549340485458"/>
+          <c:x val="0.10470431893687709"/>
+          <c:y val="0.13697824178651727"/>
+          <c:w val="0.82087707641196028"/>
+          <c:h val="0.67442781963639153"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1299,7 +1276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E4C6-4948-B16D-749823D27F08}"/>
+              <c16:uniqueId val="{00000000-26D5-0C4B-90A2-943E5338871C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1308,11 +1285,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1352,130 +1329,130 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>327600000</c:v>
+                  <c:v>147400000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347300000</c:v>
+                  <c:v>154000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364700000</c:v>
+                  <c:v>164800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445800000</c:v>
+                  <c:v>185500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155500000</c:v>
+                  <c:v>39800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>369400000</c:v>
+                  <c:v>172500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>330400000</c:v>
+                  <c:v>148000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>217000000</c:v>
+                  <c:v>28600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205800000</c:v>
+                  <c:v>11400000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>575400000</c:v>
+                  <c:v>203100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>617600000</c:v>
+                  <c:v>227100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1053400000</c:v>
+                  <c:v>495700000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>764800000</c:v>
+                  <c:v>290700000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>851000000</c:v>
+                  <c:v>333200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1006400000</c:v>
+                  <c:v>425800000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1061545000</c:v>
+                  <c:v>403794000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1035656000</c:v>
+                  <c:v>377031000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1313836000</c:v>
+                  <c:v>576760000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1533295000</c:v>
+                  <c:v>687650000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1561031000</c:v>
+                  <c:v>755823000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1745223000</c:v>
+                  <c:v>844306000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1794815000</c:v>
+                  <c:v>882231000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2023703000</c:v>
+                  <c:v>1013559000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1803598000</c:v>
+                  <c:v>799491000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1672430000</c:v>
+                  <c:v>730502000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1814652000</c:v>
+                  <c:v>828063000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1662000000</c:v>
+                  <c:v>911000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1063000000</c:v>
+                  <c:v>437000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015000000</c:v>
+                  <c:v>1376000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>323000000</c:v>
+                  <c:v>-115000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1962000000</c:v>
+                  <c:v>1156000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3428000000</c:v>
+                  <c:v>2106000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2648000000</c:v>
+                  <c:v>1496000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2858000000</c:v>
+                  <c:v>1958000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3152000000</c:v>
+                  <c:v>2123000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3575000000</c:v>
+                  <c:v>2534000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4222000000</c:v>
+                  <c:v>3024000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5745000000</c:v>
+                  <c:v>3248000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E4C6-4948-B16D-749823D27F08}"/>
+              <c16:uniqueId val="{00000001-26D5-0C4B-90A2-943E5338871C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,11 +1461,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1528,7 +1505,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1651,7 +1628,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E4C6-4948-B16D-749823D27F08}"/>
+              <c16:uniqueId val="{00000002-26D5-0C4B-90A2-943E5338871C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1665,11 +1642,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1211860976"/>
-        <c:axId val="1238421232"/>
+        <c:axId val="507792047"/>
+        <c:axId val="526317647"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1211860976"/>
+        <c:axId val="507792047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1238421232"/>
+        <c:crossAx val="526317647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1717,9 +1694,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1238421232"/>
+        <c:axId val="526317647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1765,7 +1743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1211860976"/>
+        <c:crossAx val="507792047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1783,10 +1761,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36100703691108377"/>
-          <c:y val="0.90892895218698777"/>
-          <c:w val="0.30456399926753341"/>
-          <c:h val="4.9783858984840008E-2"/>
+          <c:x val="0.34365689172574354"/>
+          <c:y val="0.89580129756354576"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="5.6960072746176933E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2368,20 +2346,20 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F862F5-D19D-78CE-53A9-0432ACCB9A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468252A5-6650-9269-E74A-1B22B1E88818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,6 +2378,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2521,12 +2551,13 @@
     <v>a23d9c</v>
     <v>268435456</v>
     <v>1</v>
+    <v>2</v>
     <v>Powered by Refinitiv</v>
-    <v>402.92</v>
+    <v>405.65</v>
     <v>279.32</v>
-    <v>1.1167</v>
-    <v>0.51</v>
-    <v>1.3039999999999998E-3</v>
+    <v>1.1305000000000001</v>
+    <v>-2.11</v>
+    <v>-5.3369999999999997E-3</v>
     <v>USD</v>
     <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. The Company operates through five segments: S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility), and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment is a provider of credit ratings, research and analytics to investors and other market participants. Its Commodity Insights is a provider of information and benchmark prices for the commodity and energy markets. Its Mobility provides insights, forecasts and advisory services to the automotive value chain. Its Indices is an index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>39950</v>
@@ -2534,24 +2565,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water St, NEW YORK, NY, 10041-0004 US</v>
-    <v>392.1</v>
+    <v>398.06990000000002</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45105.958333356248</v>
+    <v>45114.980999039064</v>
     <v>0</v>
-    <v>389.19</v>
-    <v>125599616000</v>
+    <v>392</v>
+    <v>126154600000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>390.24</v>
-    <v>46.088999999999999</v>
-    <v>391.01</v>
-    <v>391.52</v>
+    <v>393.22</v>
+    <v>46.2926</v>
+    <v>395.36</v>
+    <v>393.25</v>
     <v>320800000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>17</v>
-    <v>1244083</v>
+    <v>33</v>
+    <v>1143596</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2577,6 +2608,7 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
+    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
@@ -2619,7 +2651,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2662,6 +2694,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
+      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -3121,10 +3154,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR103" sqref="AR103"/>
+      <selection pane="bottomRight" activeCell="AP89" sqref="AP89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3252,19 +3285,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3273,127 +3306,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3520,37 +3553,37 @@
       <c r="AM3" s="1">
         <v>11181000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>12401000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>13277000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>14343000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>15228000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>16128000000</v>
+      <c r="AN3" s="24">
+        <v>12369000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>13284000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>14383000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>15354000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>16072000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3566,160 +3599,160 @@
         <v>3.8145271813613491E-2</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>-1.5951595159515941E-2</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>8.3622135271101072E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>2.2696791499019486E-3</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>5.5326814204837982E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>7.0714459887832204E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.25752675928034607</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>6.3167807598971448E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>4.7490886791810016E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>0.14941295085699413</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>5.5176706940946785E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>7.0499584350111277E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>7.2386773547094219E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>8.5159945133904236E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>3.0595614929173953E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>8.3942746238878652E-3</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>8.7550439045729789E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>0.14343368241502108</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <f t="shared" si="0"/>
         <v>4.1890572422539574E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <f t="shared" si="0"/>
         <v>8.2674914606200467E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <f t="shared" si="0"/>
         <v>-6.1607898431857766E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <f t="shared" si="0"/>
         <v>-6.3457043251395895E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <f t="shared" si="0"/>
         <v>3.638389309285861E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <f t="shared" si="0"/>
         <v>1.2591574609079892E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <f t="shared" si="0"/>
         <v>-0.28754402817803393</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <f t="shared" si="0"/>
         <v>9.550561797752799E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <f t="shared" si="0"/>
         <v>3.6102564102564072E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <f t="shared" si="0"/>
         <v>5.1870916650168297E-2</v>
       </c>
-      <c r="AG4" s="16">
-        <f t="shared" ref="AG4" si="1">(AG3/AF3)-1</f>
+      <c r="AG4" s="15">
+        <f t="shared" si="0"/>
         <v>6.549971767363072E-2</v>
       </c>
-      <c r="AH4" s="16">
-        <f t="shared" ref="AH4" si="2">(AH3/AG3)-1</f>
+      <c r="AH4" s="15">
+        <f t="shared" si="0"/>
         <v>7.1012188659247411E-2</v>
       </c>
-      <c r="AI4" s="16">
-        <f t="shared" ref="AI4" si="3">(AI3/AH3)-1</f>
+      <c r="AI4" s="15">
+        <f t="shared" si="0"/>
         <v>3.216229589312225E-2</v>
       </c>
-      <c r="AJ4" s="16">
-        <f t="shared" ref="AJ4" si="4">(AJ3/AI3)-1</f>
+      <c r="AJ4" s="15">
+        <f t="shared" si="0"/>
         <v>7.0469798657718075E-2</v>
       </c>
-      <c r="AK4" s="16">
-        <f t="shared" ref="AK4" si="5">(AK3/AJ3)-1</f>
+      <c r="AK4" s="15">
+        <f t="shared" si="0"/>
         <v>0.11091207642931789</v>
       </c>
-      <c r="AL4" s="16">
-        <f t="shared" ref="AL4" si="6">(AL3/AK3)-1</f>
+      <c r="AL4" s="15">
+        <f t="shared" si="0"/>
         <v>0.11488847084117171</v>
       </c>
-      <c r="AM4" s="16">
-        <f t="shared" ref="AM4:AR4" si="7">(AM3/AL3)-1</f>
+      <c r="AM4" s="15">
+        <f t="shared" si="0"/>
         <v>0.34759551645172948</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="7"/>
-        <v>0.10911367498434843</v>
+        <f t="shared" ref="AM4:AR4" si="1">(AN3/AM3)-1</f>
+        <v>0.10625167695197213</v>
       </c>
       <c r="AO4" s="16">
-        <f t="shared" si="7"/>
-        <v>7.0639464559309806E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.39752607324764E-2</v>
       </c>
       <c r="AP4" s="16">
-        <f t="shared" si="7"/>
-        <v>8.0289221962792867E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2731105088828638E-2</v>
       </c>
       <c r="AQ4" s="16">
-        <f t="shared" si="7"/>
-        <v>6.1702572683538959E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7510255162344324E-2</v>
       </c>
       <c r="AR4" s="16">
-        <f t="shared" si="7"/>
-        <v>5.9101654846335672E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6763058486387843E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3734,7 +3767,7 @@
         <v>0.15367940353865794</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.39487627574236139</v>
       </c>
     </row>
@@ -3848,7 +3881,7 @@
         <v>1801000000</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL5" s="1">
         <v>2195000000</v>
@@ -3976,16 +4009,16 @@
         <v>7415000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4119,7 +4152,7 @@
         <v>0.29049999999999998</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.22484572041856721</v>
       </c>
     </row>
@@ -4244,171 +4277,171 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AM9" si="8">C8/C3</f>
+        <f t="shared" ref="C9:AM9" si="2">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4416,31 +4449,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1">
         <v>868900000</v>
@@ -4467,67 +4500,67 @@
         <v>1522631000</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4543,7 +4576,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>8.1388069045702539E-3</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4551,118 +4584,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1">
         <v>1543000000</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4784,172 +4817,172 @@
         <v>3383000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.34066523605150212</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="9">C12/C3</f>
+        <f t="shared" ref="C13:AM13" si="3">C12/C3</f>
         <v>0.34677828513444953</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35467108268615805</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35016501650165016</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.47076579094466181</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.34705457546683172</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35769428718476581</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35469397707876127</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35263038032338873</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.31471621572675579</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.32736006541069057</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.31485998634013074</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.31583712967940919</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.32627175457885282</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.31801102204408815</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.32475412103057066</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.32776224912738788</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35344702264233863</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36035512236588613</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36273539968666069</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36184619269436785</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.365755319866644</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35997974685338663</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36331676122393908</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35976636913112747</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36674474829577075</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.36519372398334932</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.38404494382022469</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.35630769230769233</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.62720253415165317</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.29700734048560135</v>
       </c>
       <c r="AG13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.25490196078431371</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.25729836714497772</v>
       </c>
       <c r="AI13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.2494407158836689</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.22645170921032989</v>
       </c>
       <c r="AK13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.20733673743617306</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.20658069181631916</v>
       </c>
       <c r="AM13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.30256685448528753</v>
       </c>
       <c r="AS13" s="17">
@@ -5207,16 +5240,16 @@
         <v>4396000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5337,95 +5370,95 @@
       <c r="AM16" s="1">
         <v>8162000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>4.9925267075214719E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="36">
         <f>AU101/AM3</f>
-        <v>11.233307933100797</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>11.282944280475807</v>
+      </c>
+      <c r="AU16" s="36">
         <f>AU101/AM28</f>
-        <v>38.669832512315274</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>49.960070007955451</v>
+        <v>38.840701970443348</v>
+      </c>
+      <c r="AV16" s="37">
+        <f>AU101/AM107</f>
+        <v>50.180827366746222</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>75624000</v>
@@ -5473,7 +5506,7 @@
         <v>304000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5592,10 +5625,19 @@
         <v>1013000000</v>
       </c>
       <c r="AS18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5713,14 +5755,41 @@
       <c r="AM19" s="10">
         <v>5745000000</v>
       </c>
-      <c r="AS19" s="55">
+      <c r="AN19" s="31">
+        <v>5847000000</v>
+      </c>
+      <c r="AO19" s="31">
+        <v>6489000000</v>
+      </c>
+      <c r="AP19" s="31">
+        <v>7175000000</v>
+      </c>
+      <c r="AQ19" s="31">
+        <v>7750000000</v>
+      </c>
+      <c r="AR19" s="31">
+        <v>8340000000</v>
+      </c>
+      <c r="AS19" s="29">
         <f>AM40-AM56-AM61</f>
         <v>-10246000000</v>
       </c>
+      <c r="AT19" s="36">
+        <f>AU101/AN3</f>
+        <v>10.199256205028702</v>
+      </c>
+      <c r="AU19" s="36">
+        <f>AU101/AN28</f>
+        <v>31.64942298043151</v>
+      </c>
+      <c r="AV19" s="37">
+        <f>AU101/AN106</f>
+        <v>27.25310002160294</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5736,143 +5805,163 @@
         <v>0.22237455442829712</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AA20" si="10">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AA20" si="4">(F19/E19)-1</f>
         <v>-0.65118887393449976</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.3755627009646303</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-0.10557661072008662</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-0.34322033898305082</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-5.1612903225806472E-2</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.795918367346939</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>7.3340285019117157E-2</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.7056347150259068</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-0.27397000189861398</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.11270920502092041</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.18260869565217397</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>5.4794316375198715E-2</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-2.4388038189619876E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.26860270205550885</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.16703682955863597</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.8089147880870904E-2</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.1179938130632896</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2.8415852873816094E-2</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.12752734961541989</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-0.10876348950414172</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>-7.2725740436616171E-2</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5039134672303174E-2</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" ref="AB20" si="11">(AB19/AA19)-1</f>
+        <f t="shared" ref="AB20" si="5">(AB19/AA19)-1</f>
         <v>-8.4121914284391752E-2</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" ref="AC20" si="12">(AC19/AB19)-1</f>
+        <f t="shared" ref="AC20" si="6">(AC19/AB19)-1</f>
         <v>-0.36040914560770154</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" ref="AD20" si="13">(AD19/AC19)-1</f>
+        <f t="shared" ref="AD20" si="7">(AD19/AC19)-1</f>
         <v>0.89557855126999053</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" ref="AE20" si="14">(AE19/AD19)-1</f>
+        <f t="shared" ref="AE20" si="8">(AE19/AD19)-1</f>
         <v>-0.83970223325062032</v>
       </c>
       <c r="AF20" s="15">
-        <f t="shared" ref="AF20" si="15">(AF19/AE19)-1</f>
+        <f t="shared" ref="AF20" si="9">(AF19/AE19)-1</f>
         <v>5.0743034055727554</v>
       </c>
       <c r="AG20" s="15">
-        <f t="shared" ref="AG20" si="16">(AG19/AF19)-1</f>
+        <f t="shared" ref="AG20" si="10">(AG19/AF19)-1</f>
         <v>0.74719673802242603</v>
       </c>
       <c r="AH20" s="15">
-        <f t="shared" ref="AH20" si="17">(AH19/AG19)-1</f>
+        <f t="shared" ref="AH20" si="11">(AH19/AG19)-1</f>
         <v>-0.22753792298716458</v>
       </c>
       <c r="AI20" s="15">
-        <f t="shared" ref="AI20" si="18">(AI19/AH19)-1</f>
+        <f t="shared" ref="AI20" si="12">(AI19/AH19)-1</f>
         <v>7.9305135951661665E-2</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" ref="AJ20" si="19">(AJ19/AI19)-1</f>
+        <f t="shared" ref="AJ20" si="13">(AJ19/AI19)-1</f>
         <v>0.10286913925822261</v>
       </c>
       <c r="AK20" s="15">
-        <f t="shared" ref="AK20" si="20">(AK19/AJ19)-1</f>
+        <f t="shared" ref="AK20" si="14">(AK19/AJ19)-1</f>
         <v>0.1342005076142132</v>
       </c>
       <c r="AL20" s="15">
-        <f t="shared" ref="AL20" si="21">(AL19/AK19)-1</f>
+        <f t="shared" ref="AL20" si="15">(AL19/AK19)-1</f>
         <v>0.18097902097902097</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" ref="AM20" si="22">(AM19/AL19)-1</f>
+        <f t="shared" ref="AM20:AR20" si="16">(AM19/AL19)-1</f>
         <v>0.36072951207958304</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="16"/>
+        <v>1.7754569190600478E-2</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="16"/>
+        <v>0.10979989738327345</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="16"/>
+        <v>0.10571736785329011</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="16"/>
+        <v>8.0139372822299659E-2</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="16"/>
+        <v>7.6129032258064555E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5990,8 +6079,34 @@
       <c r="AM21" s="2">
         <v>0.51380000000000003</v>
       </c>
+      <c r="AN21" s="32">
+        <f>AN19/AN3</f>
+        <v>0.47271404317244725</v>
+      </c>
+      <c r="AO21" s="32">
+        <f t="shared" ref="AO21:AR21" si="17">AO19/AO3</f>
+        <v>0.48848238482384826</v>
+      </c>
+      <c r="AP21" s="32">
+        <f t="shared" si="17"/>
+        <v>0.49885281234791073</v>
+      </c>
+      <c r="AQ21" s="32">
+        <f t="shared" si="17"/>
+        <v>0.5047544613781425</v>
+      </c>
+      <c r="AR21" s="32">
+        <f t="shared" si="17"/>
+        <v>0.51891488302638134</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6109,11 +6224,19 @@
       <c r="AM22" s="10">
         <v>3019000000</v>
       </c>
-      <c r="AS22" s="54" t="s">
-        <v>91</v>
+      <c r="AS22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU22" s="38">
+        <f>(-1*AM98)/AU101</f>
+        <v>8.1170246665599188E-3</v>
+      </c>
+      <c r="AV22" s="39">
+        <f>AM107/AU101</f>
+        <v>1.9927929698956678E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6232,7 +6355,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +6474,7 @@
         <v>1683000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6470,7 +6593,7 @@
         <v>4702000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6589,7 +6712,7 @@
         <v>0.42049999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6708,7 +6831,7 @@
         <v>1180000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6826,10 +6949,25 @@
       <c r="AM28" s="11">
         <v>3248000000</v>
       </c>
+      <c r="AN28" s="33">
+        <v>3986000000</v>
+      </c>
+      <c r="AO28" s="33">
+        <v>4506000000</v>
+      </c>
+      <c r="AP28" s="33">
+        <v>4975000000</v>
+      </c>
+      <c r="AQ28" s="33">
+        <v>5348000000</v>
+      </c>
+      <c r="AR28" s="33">
+        <v>5854000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6845,143 +6983,163 @@
         <v>0.12560679611650483</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="23">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AA29" si="18">(F28/E28)-1</f>
         <v>-0.78544474393530994</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3.3341708542713571</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-0.14202898550724641</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-0.80675675675675673</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-0.60139860139860146</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>16.815789473684209</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.1181683899556869</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1.182738881549978</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-0.41355658664514827</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.14619883040935666</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.27791116446578634</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-5.1681540629403444E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-6.6278845153716959E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.52974158623561451</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.19226367986684245</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>9.9139096924307335E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.11706841416575053</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>4.4918548488344312E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.14885897230997314</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-0.21120428115186185</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-8.6291152745934574E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.13355336467251289</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="24">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="19">(AB28/AA28)-1</f>
         <v>0.1001578382321151</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="25">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="20">(AC28/AB28)-1</f>
         <v>-0.52030735455543353</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" ref="AD29" si="26">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="21">(AD28/AC28)-1</f>
         <v>2.1487414187643021</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" ref="AE29" si="27">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="22">(AE28/AD28)-1</f>
         <v>-1.0835755813953489</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" ref="AF29" si="28">(AF28/AE28)-1</f>
+        <f t="shared" ref="AF29" si="23">(AF28/AE28)-1</f>
         <v>-11.052173913043479</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" ref="AG29" si="29">(AG28/AF28)-1</f>
+        <f t="shared" ref="AG29" si="24">(AG28/AF28)-1</f>
         <v>0.82179930795847755</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" ref="AH29" si="30">(AH28/AG28)-1</f>
+        <f t="shared" ref="AH29" si="25">(AH28/AG28)-1</f>
         <v>-0.28964862298195626</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" ref="AI29" si="31">(AI28/AH28)-1</f>
+        <f t="shared" ref="AI29" si="26">(AI28/AH28)-1</f>
         <v>0.30882352941176472</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29" si="32">(AJ28/AI28)-1</f>
+        <f t="shared" ref="AJ29" si="27">(AJ28/AI28)-1</f>
         <v>8.4269662921348409E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" ref="AK29" si="33">(AK28/AJ28)-1</f>
+        <f t="shared" ref="AK29" si="28">(AK28/AJ28)-1</f>
         <v>0.19359397079604324</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="34">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="29">(AL28/AK28)-1</f>
         <v>0.19337016574585641</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="35">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29:AR29" si="30">(AM28/AL28)-1</f>
         <v>7.4074074074074181E-2</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="30"/>
+        <v>0.22721674876847286</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="30"/>
+        <v>0.13045659809332655</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="30"/>
+        <v>0.10408344429649352</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="30"/>
+        <v>7.4974874371859235E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="30"/>
+        <v>9.4614809274495171E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7099,8 +7257,28 @@
       <c r="AM30" s="2">
         <v>0.29049999999999998</v>
       </c>
+      <c r="AN30" s="34">
+        <f>AN28/AN3</f>
+        <v>0.32225725604333416</v>
+      </c>
+      <c r="AO30" s="34">
+        <f t="shared" ref="AO30:AR30" si="31">AO28/AO3</f>
+        <v>0.33920505871725382</v>
+      </c>
+      <c r="AP30" s="34">
+        <f t="shared" si="31"/>
+        <v>0.34589445873600777</v>
+      </c>
+      <c r="AQ30" s="34">
+        <f t="shared" si="31"/>
+        <v>0.34831314315487821</v>
+      </c>
+      <c r="AR30" s="34">
+        <f t="shared" si="31"/>
+        <v>0.36423593827775014</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7218,8 +7396,23 @@
       <c r="AM31" s="12">
         <v>10.25</v>
       </c>
+      <c r="AN31" s="35">
+        <v>12.43</v>
+      </c>
+      <c r="AO31" s="35">
+        <v>14.05</v>
+      </c>
+      <c r="AP31" s="35">
+        <v>15.51</v>
+      </c>
+      <c r="AQ31" s="35">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AR31" s="35">
+        <v>18.25</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7578,7 +7771,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7586,147 +7779,147 @@
         <v>3.5349581449497509E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="36">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="32">(D34-C34)/C34</f>
         <v>-8.1723145433318656E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-3.8544196979922091E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.9175971552928061E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>2.2669526384757478E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>4.7292149328823007E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-2.0900901227514E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-3.4965026254340057E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>4.2084210526315786E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>7.6163154811208309E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>2.4560911059427382E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.0009575287258617E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.3656904278185249E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-2.7515680833890143E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.4853637984296406E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>1.8049883095303634E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-7.7351865496471115E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.421774074787467E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>3.8056053387329858E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-9.2967921756318163E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-3.7804169865271894E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-6.2055176025326703E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-7.5693548153196927E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-1.6916284630374003E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>-3.4344517644655532E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" ref="AB35" si="37">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="33">(AB34-AA34)/AA34</f>
         <v>-2.632758952021011E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" ref="AC35" si="38">(AC34-AB34)/AB34</f>
+        <f t="shared" ref="AC35" si="34">(AC34-AB34)/AB34</f>
         <v>-6.3815789473684215E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" ref="AD35" si="39">(AD34-AC34)/AC34</f>
+        <f t="shared" ref="AD35" si="35">(AD34-AC34)/AC34</f>
         <v>-1.6865776528460996E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" ref="AE35" si="40">(AE34-AD34)/AD34</f>
+        <f t="shared" ref="AE35" si="36">(AE34-AD34)/AD34</f>
         <v>-2.9664045746962117E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" ref="AF35" si="41">(AF34-AE34)/AE34</f>
+        <f t="shared" ref="AF35" si="37">(AF34-AE34)/AE34</f>
         <v>1.141804788213628E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" ref="AG35" si="42">(AG34-AF34)/AF34</f>
+        <f t="shared" ref="AG35" si="38">(AG34-AF34)/AF34</f>
         <v>-3.4231609613983978E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" ref="AH35" si="43">(AH34-AG34)/AG34</f>
+        <f t="shared" ref="AH35" si="39">(AH34-AG34)/AG34</f>
         <v>-2.3755656108597284E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" ref="AI35" si="44">(AI34-AH34)/AH34</f>
+        <f t="shared" ref="AI35" si="40">(AI34-AH34)/AH34</f>
         <v>-2.20162224797219E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" ref="AJ35" si="45">(AJ34-AI34)/AI34</f>
+        <f t="shared" ref="AJ35" si="41">(AJ34-AI34)/AI34</f>
         <v>-2.4881516587677725E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" ref="AK35" si="46">(AK34-AJ34)/AJ34</f>
+        <f t="shared" ref="AK35" si="42">(AK34-AJ34)/AJ34</f>
         <v>-1.9441069258809233E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="47">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="43">(AL34-AK34)/AK34</f>
         <v>-1.2391573729863693E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="48">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="44">(AM34-AL34)/AL34</f>
         <v>0.31720430107526881</v>
       </c>
     </row>
@@ -7735,118 +7928,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7854,118 +8047,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7973,28 +8166,28 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>8100000</v>
@@ -8092,73 +8285,73 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1">
         <v>24602000</v>
@@ -8203,7 +8396,7 @@
         <v>14000000</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8211,28 +8404,28 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>8100000</v>
@@ -8330,28 +8523,28 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>781000000</v>
@@ -8441,7 +8634,7 @@
         <v>2494000000</v>
       </c>
       <c r="AM41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8449,28 +8642,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1">
         <v>213300000</v>
@@ -8527,40 +8720,40 @@
         <v>263000000</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8568,28 +8761,28 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
         <v>121700000</v>
@@ -8687,28 +8880,28 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10">
         <v>1124100000</v>
@@ -8806,28 +8999,28 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
         <v>345800000</v>
@@ -8925,64 +9118,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>1671479000</v>
@@ -9036,7 +9229,7 @@
         <v>34545000000</v>
       </c>
       <c r="AM46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9044,28 +9237,28 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1">
         <v>972900000</v>
@@ -9155,7 +9348,7 @@
         <v>18306000000</v>
       </c>
       <c r="AM47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9163,28 +9356,28 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1">
         <v>972900000</v>
@@ -9282,112 +9475,112 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1">
         <v>1752000000</v>
@@ -9401,70 +9594,70 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1">
         <v>79559000</v>
@@ -9473,46 +9666,46 @@
         <v>24072000</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9520,28 +9713,28 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>565700000</v>
@@ -9639,28 +9832,28 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1">
         <v>1884400000</v>
@@ -9758,118 +9951,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9877,28 +10070,28 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11">
         <v>3008500000</v>
@@ -9996,28 +10189,28 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1">
         <v>176300000</v>
@@ -10107,7 +10300,7 @@
         <v>450000000</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10115,28 +10308,28 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>105300000</v>
@@ -10187,7 +10380,7 @@
         <v>22000</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1">
         <v>400000000</v>
@@ -10196,25 +10389,25 @@
         <v>457000000</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1">
         <v>143000000</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG56" s="1">
         <v>399000000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ56" s="1">
         <v>100000000</v>
@@ -10234,106 +10427,106 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1">
         <v>84000000</v>
@@ -10345,7 +10538,7 @@
         <v>116000000</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10353,58 +10546,58 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1">
         <v>719948000</v>
@@ -10472,28 +10665,28 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>726400000</v>
@@ -10583,7 +10776,7 @@
         <v>2081000000</v>
       </c>
       <c r="AM59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10591,28 +10784,28 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10">
         <v>1008000000</v>
@@ -10710,28 +10903,28 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>657500000</v>
@@ -10829,70 +11022,70 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1">
         <v>159115000</v>
@@ -10901,46 +11094,46 @@
         <v>147838000</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10948,28 +11141,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>129800000</v>
@@ -11020,13 +11213,13 @@
         <v>9965000</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1">
         <v>205000000</v>
@@ -11038,22 +11231,22 @@
         <v>23000000</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1">
         <v>4065000000</v>
@@ -11067,28 +11260,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>300100000</v>
@@ -11186,28 +11379,28 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1">
         <v>1087400000</v>
@@ -11305,118 +11498,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11424,28 +11617,28 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10">
         <v>2095400000</v>
@@ -11543,43 +11736,43 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>205800000</v>
@@ -11654,7 +11847,7 @@
         <v>415000000</v>
       </c>
       <c r="AM68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11662,28 +11855,28 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1">
         <v>923100000</v>
@@ -11781,28 +11974,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-442900000</v>
@@ -11892,7 +12085,7 @@
         <v>-886000000</v>
       </c>
       <c r="AM70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11900,28 +12093,28 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1">
         <v>432900000</v>
@@ -12008,7 +12201,7 @@
         <v>-12438000000</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM71" s="1">
         <v>18212000000</v>
@@ -12019,28 +12212,28 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10">
         <v>913100000</v>
@@ -12138,28 +12331,28 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11">
         <v>3008500000</v>
@@ -12257,118 +12450,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12376,118 +12569,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12495,10 +12688,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>39800000</v>
@@ -12614,10 +12807,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>68900000</v>
@@ -12733,10 +12926,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>5400000</v>
@@ -12748,7 +12941,7 @@
         <v>54000000</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1">
         <v>-39100000</v>
@@ -12760,13 +12953,13 @@
         <v>18900000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1">
         <v>-8300000</v>
@@ -12784,10 +12977,10 @@
         <v>-50017000</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1">
         <v>-86613000</v>
@@ -12823,7 +13016,7 @@
         <v>79000000</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG78" s="1">
         <v>81000000</v>
@@ -12852,67 +13045,67 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1">
         <v>-1934000</v>
@@ -12968,158 +13161,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="49">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="45">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>-3.0918582451738076E-4</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>3.2881092795765563E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.04617505277295E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.629763993372069E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.5077011917810506E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.5850144092219021E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>2.247191011235955E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.6E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.504652544050683E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.8633540372670808E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.66048401342519E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.2864918357248886E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.4381591562799617E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.8211673384087176E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.9215264713786616E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.9284078582620223E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.913961184151686E-2</v>
       </c>
     </row>
@@ -13128,10 +13321,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>-214800000</v>
@@ -13232,8 +13425,8 @@
       <c r="AJ81" s="1">
         <v>-70000000</v>
       </c>
-      <c r="AK81" s="1" t="s">
-        <v>92</v>
+      <c r="AK81" s="1">
+        <v>-70000000</v>
       </c>
       <c r="AL81" s="1">
         <v>-2281000000</v>
@@ -13247,67 +13440,67 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1">
         <v>95070000</v>
@@ -13352,10 +13545,10 @@
         <v>-144000000</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM82" s="1">
         <v>36000000</v>
@@ -13366,10 +13559,10 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1">
         <v>-19000000</v>
@@ -13405,19 +13598,19 @@
         <v>-10500000</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1">
         <v>-9484000</v>
@@ -13441,127 +13634,127 @@
         <v>13000000</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT83" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AT83" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU83" s="66"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>60000000</v>
@@ -13594,43 +13787,43 @@
         <v>38000000</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM84" s="1">
         <v>43000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1">
         <v>116100000</v>
@@ -13717,18 +13910,18 @@
         <v>203000000</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM85" s="1">
         <v>107000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU85" s="24">
+      <c r="AT85" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU85" s="44">
         <f>AM17</f>
         <v>304000000</v>
       </c>
@@ -13738,10 +13931,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>212000000</v>
@@ -13846,15 +14039,15 @@
         <v>-2167000000</v>
       </c>
       <c r="AL86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM86" s="1">
         <v>-1719000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU86" s="44">
         <f>AM56</f>
         <v>803000000</v>
       </c>
@@ -13864,10 +14057,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>111300000</v>
@@ -13977,10 +14170,10 @@
       <c r="AM87" s="10">
         <v>2603000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU87" s="44">
         <f>AM61</f>
         <v>10730000000</v>
       </c>
@@ -13990,10 +14183,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-58000000</v>
@@ -14062,215 +14255,215 @@
         <v>-115443000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-119000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-70000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-134000000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-77000000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-143000000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-116000000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-128000000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-118000000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-125000000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-57000000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-37000000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-37000000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-37000000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU88" s="33">
+        <v>-91000000</v>
+      </c>
+      <c r="AT88" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU88" s="46">
         <f>AU85/(AU86+AU87)</f>
         <v>2.6359143327841845E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="46">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="46"/>
+        <v>3.3120146185472821E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="46"/>
+        <v>5.2695269526952693E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.8619340413638904E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="46"/>
+        <v>3.7501289590426083E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.5630468347915596E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="46"/>
+        <v>3.7600585223116316E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.6782054201776359E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.2927306313158754E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="46"/>
+        <v>4.1733383299833067E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="46"/>
+        <v>6.6217842391127588E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="46"/>
+        <v>6.2646784188336496E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.6204982435440186E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.9282314629258517E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.6355880258857342E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.4751508706747447E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.9033550363141303E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.4903803074531827E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="46"/>
+        <v>8.1207106776486529E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="46"/>
+        <v>4.1018934839885522E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.6942551866961208E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.0118599626920383E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.8165539086601137E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.9994011877451156E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.1348288540287478E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.1453730387447967E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="46"/>
+        <v>1.7303370786516854E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.2965749356563057E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.40918501788067E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.0844373785550256E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="46"/>
+        <v>2.061685634174501E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="46"/>
+        <v>9.1083413231064243E-3</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="46"/>
+        <v>5.523212419764144E-3</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="46"/>
+        <v>4.9717817790916417E-3</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="46"/>
+        <v>4.459443172230927E-3</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="46"/>
+        <v>8.1388069045702539E-3</v>
+      </c>
+      <c r="AT89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="50">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="50"/>
-        <v>3.3120146185472821E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="50"/>
-        <v>5.2695269526952693E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.8619340413638904E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="50"/>
-        <v>3.7501289590426083E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.5630468347915596E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="50"/>
-        <v>3.7600585223116316E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.6782054201776359E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.2927306313158754E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="50"/>
-        <v>4.1733383299833067E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="50"/>
-        <v>6.6217842391127588E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="50"/>
-        <v>6.2646784188336496E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.6204982435440186E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.9282314629258517E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="50"/>
-        <v>1.6355880258857342E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.4751508706747447E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.9033550363141303E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="50"/>
-        <v>2.4903803074531827E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="50"/>
-        <v>8.1207106776486529E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="50"/>
-        <v>4.1018934839885522E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="50"/>
-        <v>1.6942551866961208E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="50"/>
-        <v>1.0118599626920383E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="50"/>
-        <v>1.8165539086601137E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="44">
         <f>AM27</f>
         <v>1180000000</v>
       </c>
@@ -14280,43 +14473,43 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-703719000</v>
@@ -14346,7 +14539,7 @@
         <v>-48261000</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1">
         <v>-364396000</v>
@@ -14393,10 +14586,10 @@
       <c r="AM90" s="1">
         <v>3719000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="44">
         <f>AM25</f>
         <v>4702000000</v>
       </c>
@@ -14406,123 +14599,123 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1">
         <v>-298984000</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-24602000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1">
         <v>-165000000</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU91" s="33">
+        <v>91</v>
+      </c>
+      <c r="AT91" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU91" s="46">
         <f>AU89/AU90</f>
         <v>0.25095703955763504</v>
       </c>
@@ -14532,123 +14725,123 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU92" s="35">
+        <v>91</v>
+      </c>
+      <c r="AT92" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU92" s="46">
         <f>AU88*(1-AU91)</f>
         <v>1.9744130753011267E-2</v>
       </c>
@@ -14658,10 +14851,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-301600000</v>
@@ -14771,20 +14964,20 @@
       <c r="AM93" s="1">
         <v>-91000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-359600000</v>
@@ -14894,11 +15087,12 @@
       <c r="AM94" s="10">
         <v>3628000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU94" s="36">
-        <v>4.095E-2</v>
+      <c r="AT94" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU94" s="47">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14906,97 +15100,97 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1">
         <v>-70000000</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1">
         <v>-400000000</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1">
         <v>-421000000</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="1">
         <v>-403000000</v>
@@ -15008,7 +15202,7 @@
         <v>-1394000000</v>
       </c>
       <c r="AJ95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK95" s="1">
         <v>-219000000</v>
@@ -15019,12 +15213,12 @@
       <c r="AM95" s="1">
         <v>-3730000000</v>
       </c>
-      <c r="AT95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU95" s="57" cm="1">
+      <c r="AT95" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU95" s="48" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1167</v>
+        <v>1.1305000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15032,10 +15226,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>7900000</v>
@@ -15095,60 +15289,60 @@
         <v>146867000</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15157,31 +15351,31 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-63300000</v>
@@ -15223,7 +15417,7 @@
         <v>-447233000</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1">
         <v>-255808000</v>
@@ -15259,7 +15453,7 @@
         <v>-1164000000</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK97" s="1">
         <v>-8503000000</v>
@@ -15270,12 +15464,12 @@
       <c r="AM97" s="1">
         <v>-12004000000</v>
       </c>
-      <c r="AT97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU97" s="35">
+      <c r="AT97" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU97" s="46">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.9023934999999998E-2</v>
+        <v>8.9679360000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15283,10 +15477,10 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1">
         <v>-99700000</v>
@@ -15396,20 +15590,20 @@
       <c r="AM98" s="1">
         <v>-1024000000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU98" s="67"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>350800000</v>
@@ -15519,10 +15713,10 @@
       <c r="AM99" s="1">
         <v>5432000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU99" s="44">
         <f>AU86+AU87</f>
         <v>11533000000</v>
       </c>
@@ -15532,10 +15726,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>259000000</v>
@@ -15645,12 +15839,12 @@
       <c r="AM100" s="10">
         <v>-11326000000</v>
       </c>
-      <c r="AT100" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU100" s="33">
+      <c r="AT100" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU100" s="46">
         <f>AU99/AU103</f>
-        <v>8.4101071914211858E-2</v>
+        <v>8.376208169798878E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15658,10 +15852,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-500000</v>
@@ -15771,12 +15965,12 @@
       <c r="AM101" s="1">
         <v>-123000000</v>
       </c>
-      <c r="AT101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU101" s="48" cm="1">
+      <c r="AT101" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU101" s="49" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>125599616000</v>
+        <v>126154600000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15784,10 +15978,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>259000000</v>
@@ -15897,12 +16091,12 @@
       <c r="AM102" s="10">
         <v>-5218000000</v>
       </c>
-      <c r="AT102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU102" s="33">
+      <c r="AT102" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU102" s="46">
         <f>AU101/AU103</f>
-        <v>0.9158989280857881</v>
+        <v>0.91623791830201118</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15910,10 +16104,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>24500000</v>
@@ -16023,53 +16217,53 @@
       <c r="AM103" s="1">
         <v>6505000000</v>
       </c>
-      <c r="AT103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU103" s="37">
+      <c r="AT103" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU103" s="50">
         <f>AU99+AU101</f>
-        <v>137132616000</v>
+        <v>137687600000</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11">
         <v>6500000</v>
@@ -16149,500 +16343,624 @@
       <c r="AM104" s="11">
         <v>1287000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU104" s="67"/>
     </row>
-    <row r="105" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:AL105" si="47">((C22*(1-$AU$91))+C77+C88+C81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.84427767354596628</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.6012207527975586</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.1334180432020331</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="51">(H106/G106)-1</f>
-        <v>1.3307174887892375</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.18999518999519005</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.1116389548693586</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="51"/>
-        <v>6.0096153846153744E-2</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.36860670194003531</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="51"/>
-        <v>1.2007182761372706</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.11749773345421577</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.24889870556811178</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.56924119709330934</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.1242611490743788</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.18182962628640054</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.27055590317202438</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.55728099049292079</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.24779148936761375</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.35807254994122384</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.46738125285580623</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.34236119267319953</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="51"/>
-        <v>0.13352537772481599</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="51"/>
-        <v>2.7775959942746509E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="51"/>
-        <v>-0.46938775510204078</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="52">(AB106/AA106)-1</f>
-        <v>7.5384615384615383E-2</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" ref="AC105" si="53">(AC106/AB106)-1</f>
-        <v>0.59799713876967098</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" ref="AD105" si="54">(AD106/AC106)-1</f>
-        <v>-0.9498657117278424</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" ref="AE105" si="55">(AE106/AD106)-1</f>
-        <v>23.089285714285715</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" ref="AF105" si="56">(AF106/AE106)-1</f>
-        <v>0.4032616753150482</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" ref="AG105" si="57">(AG106/AF106)-1</f>
-        <v>3.0639197041732791E-2</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" ref="AH105" si="58">(AH106/AG106)-1</f>
-        <v>0.36391594054331122</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" ref="AI105" si="59">(AI106/AH106)-1</f>
-        <v>0.31191281473130394</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" ref="AJ105" si="60">(AJ106/AI106)-1</f>
-        <v>2.0624462904611951E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" ref="AK105" si="61">(AK106/AJ106)-1</f>
-        <v>-0.82149873701936571</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="62">(AL106/AK106)-1</f>
-        <v>1.2468553459119498</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="63">(AM106/AL106)-1</f>
-        <v>0.75927221833449976</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="D105" s="1">
+        <f t="shared" si="47"/>
+        <v>-3006678.0093576908</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="47"/>
+        <v>-7462611.6546150446</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="47"/>
+        <v>-68076010.208421946</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="47"/>
+        <v>232213866.43981284</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="47"/>
+        <v>380241982.1352616</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="47"/>
+        <v>236103105.06167591</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="47"/>
+        <v>299844874.5214802</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="47"/>
+        <v>505215440.23819649</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="47"/>
+        <v>168439600.17014039</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="47"/>
+        <v>440845172.26712036</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="47"/>
+        <v>402185835.81454706</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="47"/>
+        <v>492586096.98000848</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="47"/>
+        <v>876867041.25903869</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="47"/>
+        <v>966692233.09230113</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="47"/>
+        <v>1153095660.9953213</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="47"/>
+        <v>846310767.33304977</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="47"/>
+        <v>1422617988.0901744</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="47"/>
+        <v>1008544275.2020416</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="47"/>
+        <v>1395420484.0493407</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="47"/>
+        <v>1296774983.4113145</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="47"/>
+        <v>1682963085.0701828</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="47"/>
+        <v>1321417893.2369204</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="47"/>
+        <v>968600210.97405362</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="47"/>
+        <v>821434240.32326674</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="47"/>
+        <v>568139089.74904299</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="47"/>
+        <v>697091025.09570396</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="47"/>
+        <v>-694594640.57847738</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="47"/>
+        <v>57641854.529987246</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="47"/>
+        <v>1419915355.1680136</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="47"/>
+        <v>2099525733.7303276</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="47"/>
+        <v>2032002126.7545729</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="47"/>
+        <v>2485829859.6341982</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="47"/>
+        <v>2487412590.3870692</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="47"/>
+        <v>3043288387.9200339</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="47"/>
+        <v>1573470863.4623566</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>((AM22*(1-$AU$91))+AM77+AM88+AM81)</f>
+        <v>3109360697.5755</v>
+      </c>
+      <c r="AN105" s="30">
+        <f>AM105*(1+$AI$106)</f>
+        <v>4079210144.7711649</v>
+      </c>
+      <c r="AO105" s="30">
+        <f t="shared" ref="AO105:AR105" si="48">AN105*(1+$AI$106)</f>
+        <v>5351568062.9072285</v>
+      </c>
+      <c r="AP105" s="30">
+        <f t="shared" si="48"/>
+        <v>7020790720.6347742</v>
+      </c>
+      <c r="AQ105" s="30">
+        <f t="shared" si="48"/>
+        <v>9210665315.9473858</v>
+      </c>
+      <c r="AR105" s="30">
+        <f t="shared" si="48"/>
+        <v>12083589860.19253</v>
+      </c>
+      <c r="AS105" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="52">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.3197429200821474E-2</v>
+        <v>8.3821439614246165E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>53300000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>98300000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>157400000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>178400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>415800000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>336800000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>374400000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>396900000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>250600000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>551500000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>486700000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>607839000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>953846000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1072372000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>1267361000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>924469000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1439658000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1082923000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1470688000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>783316000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1051493000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1191894000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1225000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>650000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>699000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1117000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>56000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>1349000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1893000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1951000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>2661000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>3491000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>3563000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>636000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>1429000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>2514000000</v>
-      </c>
-      <c r="AN106" s="58">
-        <f>AM106*(1+$AU$106)</f>
-        <v>2705489664.9674644</v>
-      </c>
-      <c r="AO106" s="58">
-        <f t="shared" ref="AO106:AR106" si="64">AN106*(1+$AU$106)</f>
-        <v>2911564967.0826426</v>
-      </c>
-      <c r="AP106" s="58">
-        <f t="shared" si="64"/>
-        <v>3133336884.3768597</v>
-      </c>
-      <c r="AQ106" s="58">
-        <f t="shared" si="64"/>
-        <v>3372001017.3201866</v>
-      </c>
-      <c r="AR106" s="58">
-        <f t="shared" si="64"/>
-        <v>3628844034.4548693</v>
-      </c>
-      <c r="AS106" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU106" s="40">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="49">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.84427767354596628</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.6012207527975586</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.1334180432020331</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="49"/>
+        <v>1.3307174887892375</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.18999518999519005</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.1116389548693586</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="49"/>
+        <v>6.0096153846153744E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.36860670194003531</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="49"/>
+        <v>1.2007182761372706</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.11749773345421577</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.24889870556811178</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.56924119709330934</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.1242611490743788</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.18182962628640054</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.27055590317202438</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.55728099049292079</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.24779148936761375</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.35807254994122384</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.46738125285580623</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.34236119267319953</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.13352537772481599</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="49"/>
+        <v>2.7775959942746509E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.46938775510204078</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="49"/>
+        <v>7.5384615384615383E-2</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.59799713876967098</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.9498657117278424</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="49"/>
+        <v>23.089285714285715</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.4032616753150482</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="49"/>
+        <v>3.0639197041732791E-2</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.36391594054331122</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.31191281473130394</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="49"/>
+        <v>2.0624462904611951E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="49"/>
+        <v>-0.82149873701936571</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="49"/>
+        <v>1.2468553459119498</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="49"/>
+        <v>0.75927221833449976</v>
+      </c>
+      <c r="AN106" s="41">
+        <v>4629000000</v>
+      </c>
+      <c r="AO106" s="41">
+        <v>5073000000</v>
+      </c>
+      <c r="AP106" s="41">
+        <v>5640000000</v>
+      </c>
+      <c r="AQ106" s="41">
+        <v>6073000000</v>
+      </c>
+      <c r="AR106" s="41">
+        <v>6511000000</v>
+      </c>
+      <c r="AS106" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU106" s="54">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>7.6169317807265144E-2</v>
+        <v>7.5446271284401872E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="38"/>
-      <c r="AO107" s="38"/>
-      <c r="AP107" s="38"/>
-      <c r="AQ107" s="38"/>
-      <c r="AR107" s="41">
+      <c r="A107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>53300000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>98300000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>157400000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>178400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>415800000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>336800000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>374400000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>396900000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>250600000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>551500000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>486700000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>607839000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>953846000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1072372000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>1267361000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>924469000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1439658000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1082923000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1470688000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>783316000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1051493000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1191894000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1225000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>650000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>699000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1117000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>1349000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1893000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1951000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>2661000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>3491000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>3563000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>636000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>1429000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>2514000000</v>
+      </c>
+      <c r="AN107" s="26"/>
+      <c r="AO107" s="26"/>
+      <c r="AP107" s="26"/>
+      <c r="AQ107" s="26"/>
+      <c r="AR107" s="42">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>63912877018.693779</v>
-      </c>
-      <c r="AS107" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU107" s="44">
+        <v>113458205779.50722</v>
+      </c>
+      <c r="AS107" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT107" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="41">
-        <f t="shared" ref="AN108:AP108" si="65">AN107+AN106</f>
-        <v>2705489664.9674644</v>
-      </c>
-      <c r="AO108" s="41">
-        <f t="shared" si="65"/>
-        <v>2911564967.0826426</v>
-      </c>
-      <c r="AP108" s="41">
-        <f t="shared" si="65"/>
-        <v>3133336884.3768597</v>
-      </c>
-      <c r="AQ108" s="41">
-        <f>AQ107+AQ106</f>
-        <v>3372001017.3201866</v>
-      </c>
-      <c r="AR108" s="41">
+      <c r="AN108" s="42">
+        <f t="shared" ref="AN108:AQ108" si="50">AN107+AN106</f>
+        <v>4629000000</v>
+      </c>
+      <c r="AO108" s="42">
+        <f t="shared" si="50"/>
+        <v>5073000000</v>
+      </c>
+      <c r="AP108" s="42">
+        <f t="shared" si="50"/>
+        <v>5640000000</v>
+      </c>
+      <c r="AQ108" s="42">
+        <f t="shared" si="50"/>
+        <v>6073000000</v>
+      </c>
+      <c r="AR108" s="42">
         <f>AR107+AR106</f>
-        <v>67541721053.148651</v>
-      </c>
-      <c r="AS108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT108" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU108" s="46">
+        <v>119969205779.50722</v>
+      </c>
+      <c r="AS108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT108" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU108" s="54">
         <f>AU105</f>
-        <v>8.3197429200821474E-2</v>
+        <v>8.3821439614246165E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO110" s="48">
+      <c r="AN110" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO110" s="49">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>55187244850.85807</v>
+        <v>97640608294.529327</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO111" s="48">
+      <c r="AN111" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO111" s="49">
         <f>AM40</f>
         <v>1287000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO112" s="48">
+      <c r="AN112" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO112" s="49">
         <f>AU99</f>
         <v>11533000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO113" s="48">
+      <c r="AN113" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO113" s="49">
         <f>AO110+AO111-AO112</f>
-        <v>44941244850.85807</v>
+        <v>87394608294.529327</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO114" s="49">
+      <c r="AN114" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO114" s="58">
         <f>AM34*(1+(5*AS16))</f>
         <v>398005987.81727946</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO115" s="59">
+      <c r="AN115" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO115" s="60">
         <f>AO113/AO114</f>
-        <v>112.91600183535466</v>
+        <v>219.58113940399136</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO116" s="61" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>391.52</v>
+        <v>393.25</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO117" s="52">
+      <c r="AN117" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO117" s="62">
         <f>AO115/AO116-1</f>
-        <v>-0.71159582694280066</v>
+        <v>-0.44162456604197997</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO118" s="53" t="str">
+      <c r="AN118" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO118" s="63" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16735,8 +17053,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/64040/000006404023000058/0000064040-23-000058-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/64040/000006404023000058/0000064040-23-000058-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:SPGI/explorer/revenue_proj" xr:uid="{A9CAF24C-8FB2-784F-853E-81335E5703BD}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{21AF8825-0AC9-E948-AD48-4F48F29F12B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Financial Services/S&P Global.xlsx
+++ b/Financial Services/S&P Global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE97B45-10D0-C648-A260-17BBD8666936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABDF043-540D-684F-8608-81E506EF0A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -575,6 +575,9 @@
   <si>
     <t>Unlevered FCF Forecast</t>
   </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,9 +945,6 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,6 +994,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +1006,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2396,37 +2400,45 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.3220000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2551,13 +2563,12 @@
     <v>a23d9c</v>
     <v>268435456</v>
     <v>1</v>
-    <v>2</v>
     <v>Powered by Refinitiv</v>
-    <v>405.65</v>
+    <v>428.65</v>
     <v>279.32</v>
-    <v>1.1305000000000001</v>
-    <v>-2.11</v>
-    <v>-5.3369999999999997E-3</v>
+    <v>1.1194</v>
+    <v>1.26</v>
+    <v>3.2450000000000001E-3</v>
     <v>USD</v>
     <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. The Company operates through five segments: S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility), and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment is a provider of credit ratings, research and analytics to investors and other market participants. Its Commodity Insights is a provider of information and benchmark prices for the commodity and energy markets. Its Mobility provides insights, forecasts and advisory services to the automotive value chain. Its Indices is an index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>39950</v>
@@ -2565,24 +2576,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water St, NEW YORK, NY, 10041-0004 US</v>
-    <v>398.06990000000002</v>
+    <v>391.22</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45114.980999039064</v>
+    <v>45187.958333333336</v>
     <v>0</v>
-    <v>392</v>
-    <v>126154600000</v>
+    <v>386.33</v>
+    <v>123945264000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>393.22</v>
-    <v>46.2926</v>
-    <v>395.36</v>
-    <v>393.25</v>
-    <v>320800000</v>
+    <v>386.97</v>
+    <v>53.890300000000003</v>
+    <v>388.26</v>
+    <v>389.52</v>
+    <v>318200000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>33</v>
-    <v>1143596</v>
+    <v>30</v>
+    <v>990603</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2608,7 +2619,6 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
-    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
@@ -2651,7 +2661,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2694,7 +2704,6 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
-      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -2737,10 +2746,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3154,10 +3163,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP89" sqref="AP89"/>
+      <selection pane="bottomRight" activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,19 +3563,19 @@
         <v>11181000000</v>
       </c>
       <c r="AN3" s="24">
-        <v>12369000000</v>
+        <v>12416000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>13284000000</v>
+        <v>13306000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>14383000000</v>
+        <v>14370000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>15354000000</v>
+        <v>15053000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>16072000000</v>
+        <v>15981000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>107</v>
@@ -3735,24 +3744,24 @@
         <v>0.34759551645172948</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" ref="AM4:AR4" si="1">(AN3/AM3)-1</f>
-        <v>0.10625167695197213</v>
+        <f t="shared" ref="AN4:AR4" si="1">(AN3/AM3)-1</f>
+        <v>0.11045523656202483</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="1"/>
-        <v>7.39752607324764E-2</v>
+        <v>7.1681701030927858E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="1"/>
-        <v>8.2731105088828638E-2</v>
+        <v>7.9963926048399303E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="1"/>
-        <v>6.7510255162344324E-2</v>
+        <v>4.7529575504523303E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="1"/>
-        <v>4.6763058486387843E-2</v>
+        <v>6.1648840762638768E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -5376,15 +5385,15 @@
       </c>
       <c r="AT16" s="36">
         <f>AU101/AM3</f>
-        <v>11.282944280475807</v>
+        <v>11.085346927823988</v>
       </c>
       <c r="AU16" s="36">
         <f>AU101/AM28</f>
-        <v>38.840701970443348</v>
+        <v>38.160487684729063</v>
       </c>
       <c r="AV16" s="37">
         <f>AU101/AM107</f>
-        <v>50.180827366746222</v>
+        <v>49.302014319809068</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5756,19 +5765,19 @@
         <v>5745000000</v>
       </c>
       <c r="AN19" s="31">
-        <v>5847000000</v>
+        <v>5837000000</v>
       </c>
       <c r="AO19" s="31">
-        <v>6489000000</v>
+        <v>6518000000</v>
       </c>
       <c r="AP19" s="31">
-        <v>7175000000</v>
+        <v>7112000000</v>
       </c>
       <c r="AQ19" s="31">
-        <v>7750000000</v>
+        <v>7699000000</v>
       </c>
       <c r="AR19" s="31">
-        <v>8340000000</v>
+        <v>8230000000</v>
       </c>
       <c r="AS19" s="29">
         <f>AM40-AM56-AM61</f>
@@ -5776,15 +5785,15 @@
       </c>
       <c r="AT19" s="36">
         <f>AU101/AN3</f>
-        <v>10.199256205028702</v>
+        <v>9.982704896907217</v>
       </c>
       <c r="AU19" s="36">
         <f>AU101/AN28</f>
-        <v>31.64942298043151</v>
+        <v>31.780836923076922</v>
       </c>
       <c r="AV19" s="37">
         <f>AU101/AN106</f>
-        <v>27.25310002160294</v>
+        <v>26.909523230568823</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5942,23 +5951,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" si="16"/>
-        <v>1.7754569190600478E-2</v>
+        <v>1.6013925152306374E-2</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" si="16"/>
-        <v>0.10979989738327345</v>
+        <v>0.11666952201473357</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" si="16"/>
-        <v>0.10571736785329011</v>
+        <v>9.1132249156182787E-2</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" si="16"/>
-        <v>8.0139372822299659E-2</v>
+        <v>8.2536557930258825E-2</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" si="16"/>
-        <v>7.6129032258064555E-2</v>
+        <v>6.8969996103390052E-2</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6081,23 +6090,23 @@
       </c>
       <c r="AN21" s="32">
         <f>AN19/AN3</f>
-        <v>0.47271404317244725</v>
+        <v>0.47011920103092786</v>
       </c>
       <c r="AO21" s="32">
         <f t="shared" ref="AO21:AR21" si="17">AO19/AO3</f>
-        <v>0.48848238482384826</v>
+        <v>0.48985420111228017</v>
       </c>
       <c r="AP21" s="32">
         <f t="shared" si="17"/>
-        <v>0.49885281234791073</v>
+        <v>0.49491997216423106</v>
       </c>
       <c r="AQ21" s="32">
         <f t="shared" si="17"/>
-        <v>0.5047544613781425</v>
+        <v>0.51145950973227927</v>
       </c>
       <c r="AR21" s="32">
         <f t="shared" si="17"/>
-        <v>0.51891488302638134</v>
+        <v>0.51498654652399722</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>160</v>
@@ -6227,13 +6236,13 @@
       <c r="AS22" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AU22" s="38">
+      <c r="AU22" s="68">
         <f>(-1*AM98)/AU101</f>
-        <v>8.1170246665599188E-3</v>
-      </c>
-      <c r="AV22" s="39">
+        <v>8.2617113954430721E-3</v>
+      </c>
+      <c r="AV22" s="38">
         <f>AM107/AU101</f>
-        <v>1.9927929698956678E-2</v>
+        <v>2.0283146922015511E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6950,19 +6959,19 @@
         <v>3248000000</v>
       </c>
       <c r="AN28" s="33">
-        <v>3986000000</v>
+        <v>3900000000</v>
       </c>
       <c r="AO28" s="33">
-        <v>4506000000</v>
+        <v>4512000000</v>
       </c>
       <c r="AP28" s="33">
-        <v>4975000000</v>
+        <v>4996000000</v>
       </c>
       <c r="AQ28" s="33">
-        <v>5348000000</v>
+        <v>5341000000</v>
       </c>
       <c r="AR28" s="33">
-        <v>5854000000</v>
+        <v>5842000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7120,23 +7129,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" si="30"/>
-        <v>0.22721674876847286</v>
+        <v>0.2007389162561577</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" si="30"/>
-        <v>0.13045659809332655</v>
+        <v>0.15692307692307694</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" si="30"/>
-        <v>0.10408344429649352</v>
+        <v>0.10726950354609932</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" si="30"/>
-        <v>7.4974874371859235E-2</v>
+        <v>6.9055244195356247E-2</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" si="30"/>
-        <v>9.4614809274495171E-2</v>
+        <v>9.3802658678150186E-2</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7259,23 +7268,23 @@
       </c>
       <c r="AN30" s="34">
         <f>AN28/AN3</f>
-        <v>0.32225725604333416</v>
+        <v>0.31411082474226804</v>
       </c>
       <c r="AO30" s="34">
         <f t="shared" ref="AO30:AR30" si="31">AO28/AO3</f>
-        <v>0.33920505871725382</v>
+        <v>0.33909514504734706</v>
       </c>
       <c r="AP30" s="34">
         <f t="shared" si="31"/>
-        <v>0.34589445873600777</v>
+        <v>0.34766875434933892</v>
       </c>
       <c r="AQ30" s="34">
         <f t="shared" si="31"/>
-        <v>0.34831314315487821</v>
+        <v>0.35481299408755729</v>
       </c>
       <c r="AR30" s="34">
         <f t="shared" si="31"/>
-        <v>0.36423593827775014</v>
+        <v>0.36555910143295162</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7397,19 +7406,19 @@
         <v>10.25</v>
       </c>
       <c r="AN31" s="35">
-        <v>12.43</v>
+        <v>12.54</v>
       </c>
       <c r="AO31" s="35">
-        <v>14.05</v>
+        <v>14.18</v>
       </c>
       <c r="AP31" s="35">
-        <v>15.51</v>
+        <v>15.7</v>
       </c>
       <c r="AQ31" s="35">
-        <v>16.670000000000002</v>
+        <v>16.79</v>
       </c>
       <c r="AR31" s="35">
-        <v>18.25</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13918,10 +13927,10 @@
       <c r="AM85" s="1">
         <v>107000000</v>
       </c>
-      <c r="AT85" s="43" t="s">
+      <c r="AT85" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="AU85" s="44">
+      <c r="AU85" s="43">
         <f>AM17</f>
         <v>304000000</v>
       </c>
@@ -14044,10 +14053,10 @@
       <c r="AM86" s="1">
         <v>-1719000000</v>
       </c>
-      <c r="AT86" s="43" t="s">
+      <c r="AT86" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AU86" s="44">
+      <c r="AU86" s="43">
         <f>AM56</f>
         <v>803000000</v>
       </c>
@@ -14170,10 +14179,10 @@
       <c r="AM87" s="10">
         <v>2603000000</v>
       </c>
-      <c r="AT87" s="43" t="s">
+      <c r="AT87" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AU87" s="44">
+      <c r="AU87" s="43">
         <f>AM61</f>
         <v>10730000000</v>
       </c>
@@ -14296,10 +14305,10 @@
       <c r="AM88" s="1">
         <v>-91000000</v>
       </c>
-      <c r="AT88" s="45" t="s">
+      <c r="AT88" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AU88" s="46">
+      <c r="AU88" s="45">
         <f>AU85/(AU86+AU87)</f>
         <v>2.6359143327841845E-2</v>
       </c>
@@ -14460,10 +14469,10 @@
         <f t="shared" si="46"/>
         <v>8.1388069045702539E-3</v>
       </c>
-      <c r="AT89" s="43" t="s">
+      <c r="AT89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="44">
+      <c r="AU89" s="43">
         <f>AM27</f>
         <v>1180000000</v>
       </c>
@@ -14586,10 +14595,10 @@
       <c r="AM90" s="1">
         <v>3719000000</v>
       </c>
-      <c r="AT90" s="43" t="s">
+      <c r="AT90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="44">
+      <c r="AU90" s="43">
         <f>AM25</f>
         <v>4702000000</v>
       </c>
@@ -14712,10 +14721,10 @@
       <c r="AM91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT91" s="45" t="s">
+      <c r="AT91" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AU91" s="46">
+      <c r="AU91" s="45">
         <f>AU89/AU90</f>
         <v>0.25095703955763504</v>
       </c>
@@ -14838,10 +14847,10 @@
       <c r="AM92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT92" s="45" t="s">
+      <c r="AT92" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AU92" s="46">
+      <c r="AU92" s="45">
         <f>AU88*(1-AU91)</f>
         <v>1.9744130753011267E-2</v>
       </c>
@@ -15087,12 +15096,12 @@
       <c r="AM94" s="10">
         <v>3628000000</v>
       </c>
-      <c r="AT94" s="43" t="s">
+      <c r="AT94" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AU94" s="47">
+      <c r="AU94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15213,12 +15222,12 @@
       <c r="AM95" s="1">
         <v>-3730000000</v>
       </c>
-      <c r="AT95" s="43" t="s">
+      <c r="AT95" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AU95" s="48" cm="1">
+      <c r="AU95" s="47" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.1305000000000001</v>
+        <v>1.1194</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15339,10 +15348,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="43" t="s">
+      <c r="AT96" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AU96" s="47">
+      <c r="AU96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15464,12 +15473,12 @@
       <c r="AM97" s="1">
         <v>-12004000000</v>
       </c>
-      <c r="AT97" s="45" t="s">
+      <c r="AT97" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AU97" s="46">
+      <c r="AU97" s="45">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>8.9679360000000014E-2</v>
+        <v>8.8869132000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15713,10 +15722,10 @@
       <c r="AM99" s="1">
         <v>5432000000</v>
       </c>
-      <c r="AT99" s="43" t="s">
+      <c r="AT99" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="AU99" s="44">
+      <c r="AU99" s="43">
         <f>AU86+AU87</f>
         <v>11533000000</v>
       </c>
@@ -15839,12 +15848,12 @@
       <c r="AM100" s="10">
         <v>-11326000000</v>
       </c>
-      <c r="AT100" s="45" t="s">
+      <c r="AT100" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="AU100" s="46">
+      <c r="AU100" s="45">
         <f>AU99/AU103</f>
-        <v>8.376208169798878E-2</v>
+        <v>8.5128046813472608E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15965,12 +15974,12 @@
       <c r="AM101" s="1">
         <v>-123000000</v>
       </c>
-      <c r="AT101" s="43" t="s">
+      <c r="AT101" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AU101" s="49" cm="1">
+      <c r="AU101" s="48" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>126154600000</v>
+        <v>123945264000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16091,12 +16100,12 @@
       <c r="AM102" s="10">
         <v>-5218000000</v>
       </c>
-      <c r="AT102" s="45" t="s">
+      <c r="AT102" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="AU102" s="46">
+      <c r="AU102" s="45">
         <f>AU101/AU103</f>
-        <v>0.91623791830201118</v>
+        <v>0.91487195318652736</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16217,12 +16226,15 @@
       <c r="AM103" s="1">
         <v>6505000000</v>
       </c>
-      <c r="AT103" s="45" t="s">
+      <c r="AS103" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT103" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AU103" s="50">
+      <c r="AU103" s="49">
         <f>AU99+AU101</f>
-        <v>137687600000</v>
+        <v>135478264000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16342,6 +16354,30 @@
       </c>
       <c r="AM104" s="11">
         <v>1287000000</v>
+      </c>
+      <c r="AN104" s="63">
+        <f>(AN106/AM105)-1</f>
+        <v>0.48133344696596092</v>
+      </c>
+      <c r="AO104" s="63">
+        <f>(AO106/AN106)-1</f>
+        <v>0.10442900564481117</v>
+      </c>
+      <c r="AP104" s="63">
+        <f>(AP106/AO106)-1</f>
+        <v>9.2982111264006351E-2</v>
+      </c>
+      <c r="AQ104" s="63">
+        <f>(AQ106/AP106)-1</f>
+        <v>7.4640287769784264E-2</v>
+      </c>
+      <c r="AR104" s="63">
+        <f>(AR106/AQ106)-1</f>
+        <v>7.7656903765690455E-2</v>
+      </c>
+      <c r="AS104" s="63">
+        <f>SUM(AN104:AR104)/5</f>
+        <v>0.16620835108205062</v>
       </c>
       <c r="AT104" s="67" t="s">
         <v>142</v>
@@ -16523,12 +16559,12 @@
       <c r="AS105" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="AT105" s="51" t="s">
+      <c r="AT105" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AU105" s="52">
+      <c r="AU105" s="51">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.3821439614246165E-2</v>
+        <v>8.2984655657864989E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16684,34 +16720,34 @@
         <f t="shared" si="49"/>
         <v>0.75927221833449976</v>
       </c>
-      <c r="AN106" s="41">
-        <v>4629000000</v>
-      </c>
-      <c r="AO106" s="41">
-        <v>5073000000</v>
-      </c>
-      <c r="AP106" s="41">
-        <v>5640000000</v>
-      </c>
-      <c r="AQ106" s="41">
-        <v>6073000000</v>
-      </c>
-      <c r="AR106" s="41">
-        <v>6511000000</v>
+      <c r="AN106" s="40">
+        <v>4606000000</v>
+      </c>
+      <c r="AO106" s="40">
+        <v>5087000000</v>
+      </c>
+      <c r="AP106" s="40">
+        <v>5560000000</v>
+      </c>
+      <c r="AQ106" s="40">
+        <v>5975000000</v>
+      </c>
+      <c r="AR106" s="40">
+        <v>6439000000</v>
       </c>
       <c r="AS106" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="AT106" s="53" t="s">
+      <c r="AT106" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="AU106" s="54">
+      <c r="AU106" s="53">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>7.5446271284401872E-2</v>
+        <v>7.4255855981702812E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="39" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16832,50 +16868,50 @@
       <c r="AO107" s="26"/>
       <c r="AP107" s="26"/>
       <c r="AQ107" s="26"/>
-      <c r="AR107" s="42">
+      <c r="AR107" s="41">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>113458205779.50722</v>
+        <v>113822785099.26418</v>
       </c>
       <c r="AS107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AT107" s="55" t="s">
+      <c r="AT107" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="56">
+      <c r="AU107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="42">
+      <c r="AN108" s="41">
         <f t="shared" ref="AN108:AQ108" si="50">AN107+AN106</f>
-        <v>4629000000</v>
-      </c>
-      <c r="AO108" s="42">
+        <v>4606000000</v>
+      </c>
+      <c r="AO108" s="41">
         <f t="shared" si="50"/>
-        <v>5073000000</v>
-      </c>
-      <c r="AP108" s="42">
+        <v>5087000000</v>
+      </c>
+      <c r="AP108" s="41">
         <f t="shared" si="50"/>
-        <v>5640000000</v>
-      </c>
-      <c r="AQ108" s="42">
+        <v>5560000000</v>
+      </c>
+      <c r="AQ108" s="41">
         <f t="shared" si="50"/>
-        <v>6073000000</v>
-      </c>
-      <c r="AR108" s="42">
+        <v>5975000000</v>
+      </c>
+      <c r="AR108" s="41">
         <f>AR107+AR106</f>
-        <v>119969205779.50722</v>
+        <v>120261785099.26418</v>
       </c>
       <c r="AS108" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AT108" s="57" t="s">
+      <c r="AT108" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="AU108" s="54">
+      <c r="AU108" s="53">
         <f>AU105</f>
-        <v>8.3821439614246165E-2</v>
+        <v>8.2984655657864989E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16885,82 +16921,82 @@
       <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
+      <c r="AN110" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="AO110" s="49">
+      <c r="AO110" s="48">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>97640608294.529327</v>
+        <v>98037743511.067291</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
+      <c r="AN111" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="AO111" s="49">
+      <c r="AO111" s="48">
         <f>AM40</f>
         <v>1287000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
+      <c r="AN112" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AO112" s="49">
+      <c r="AO112" s="48">
         <f>AU99</f>
         <v>11533000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
+      <c r="AN113" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AO113" s="49">
+      <c r="AO113" s="48">
         <f>AO110+AO111-AO112</f>
-        <v>87394608294.529327</v>
+        <v>87791743511.067291</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
+      <c r="AN114" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO114" s="57">
         <f>AM34*(1+(5*AS16))</f>
         <v>398005987.81727946</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
+      <c r="AN115" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="60">
+      <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>219.58113940399136</v>
+        <v>220.57895156937084</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="58" t="s">
+      <c r="AN116" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AO116" s="61" cm="1">
+      <c r="AO116" s="60" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>393.25</v>
+        <v>389.52</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="59" t="s">
+      <c r="AN117" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="AO117" s="62">
+      <c r="AO117" s="61">
         <f>AO115/AO116-1</f>
-        <v>-0.44162456604197997</v>
+        <v>-0.43371597974591591</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="59" t="s">
+      <c r="AN118" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AO118" s="63" t="str">
+      <c r="AO118" s="62" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
